--- a/flutter_application/back_end/src/data/rssi-data1.xlsx
+++ b/flutter_application/back_end/src/data/rssi-data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\main_app\main_app\flutter_application\back_end\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3A495-4307-4284-AAC7-213DB99CD5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1060D-A1EC-418A-9B60-BFF0A012DCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="A2" sqref="A2:F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
